--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/KANSAS_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/KANSAS_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D992"/>
+  <dimension ref="A1:D986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C33">
@@ -1129,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="D57">
-        <v>0.009741902834008097</v>
+        <v>0.009741902834008095</v>
       </c>
     </row>
     <row r="58">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C82">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C85">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C107">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C109">
@@ -1881,7 +1881,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C115">
@@ -2081,7 +2081,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C130">
@@ -2229,7 +2229,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C145">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C159">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C173">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C176">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C183">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C184">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C185">
@@ -2824,7 +2824,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C186">
@@ -2928,12 +2928,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C194">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C198">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C205">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C210">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C218">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C223">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C233">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C238">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C250">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C256">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C259">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C269">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C271">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C272">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C273">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C274">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C278">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C283">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C287">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C297">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C302">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C306">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C310">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C325">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C327">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C331">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C343">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C348">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C356">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C362">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C364">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C366">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C371">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C375">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C382">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C385">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C389">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C394">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C402">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C409">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C417">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C421">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C426">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C429">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C432">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C440">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C447">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C450">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C454">
@@ -6533,7 +6533,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C469">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C525">
@@ -7578,7 +7578,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C549">
@@ -7604,7 +7604,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C551">
@@ -7739,7 +7739,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C561">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C580">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C584">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C586">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C588">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C590">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C594">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C596">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C601">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C652">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C656">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C658">
@@ -9145,7 +9145,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C668">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C675">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C680">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C686">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C688">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C692">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C693">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C695">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C697">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C708">
@@ -9696,7 +9696,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C710">
@@ -9748,7 +9748,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C714">
@@ -9761,7 +9761,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C715">
@@ -9787,7 +9787,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C717">
@@ -9953,7 +9953,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C729">
@@ -9979,7 +9979,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C731">
@@ -10083,7 +10083,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C739">
@@ -10148,7 +10148,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C744">
@@ -10187,7 +10187,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C747">
@@ -10213,7 +10213,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C749">
@@ -10304,7 +10304,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C756">
@@ -10317,7 +10317,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C757">
@@ -10330,7 +10330,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C758">
@@ -11291,7 +11291,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C830">
@@ -11304,7 +11304,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C831">
@@ -11343,7 +11343,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C834">
@@ -11491,7 +11491,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C845">
@@ -11543,7 +11543,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C849">
@@ -11569,7 +11569,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C851">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C861">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C862">
@@ -11842,7 +11842,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C872">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C873">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C876">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C883">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C886">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C889">
@@ -12180,7 +12180,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C898">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C901">
@@ -12297,7 +12297,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C907">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C929">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C935">
@@ -12788,7 +12788,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C944">
@@ -13035,7 +13035,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C963">
@@ -13048,7 +13048,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C964">
@@ -13178,7 +13178,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C974">
@@ -13191,7 +13191,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C975">
@@ -13243,7 +13243,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C979">
@@ -13342,41 +13342,6 @@
       </c>
       <c r="D986">
         <v>1</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
